--- a/file/라우터&api.xlsx
+++ b/file/라우터&api.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,110 +222,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>상점 검색 결과 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ귀속) 상점 검색 api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/admin/addPark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건에 따른 상점 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 상세 정보 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 상세 정보(+평점), 리뷰 api</t>
+  </si>
+  <si>
+    <t>상점 인덱스로 메뉴 찾기</t>
+  </si>
+  <si>
+    <t>상점 메뉴 리스트 api</t>
+  </si>
+  <si>
+    <t>메뉴 주문 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/owner/storeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/store/order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오너 소유 상점 리스트 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오너 소유 상점 리스트 api</t>
+  </si>
+  <si>
+    <t>/api/owner/addStore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/owner/addMenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/owner/:storeId/orderList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/owner/:storeId/orderList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 인덱스로 주문 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점별 주문 리스트 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점별 주문 리스트 api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/owner/orderFinish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/api/store/search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/api/store/:storeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/store/:storeId/menuList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/store/review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>get</t>
-  </si>
-  <si>
-    <t>상점 검색 결과 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄴ귀속) 상점 검색 api</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/admin/addPark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/store/:storeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조건에 따른 상점 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점 상세 정보 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점 상세 정보(+평점), 리뷰 api</t>
-  </si>
-  <si>
-    <t>/api/store/:storeId/menuList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점 인덱스로 메뉴 찾기</t>
-  </si>
-  <si>
-    <t>상점 메뉴 리스트 api</t>
-  </si>
-  <si>
-    <t>메뉴 주문 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/owner/storeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/store/review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/store/order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오너 소유 상점 리스트 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오너 소유 상점 리스트 api</t>
-  </si>
-  <si>
-    <t>/api/owner/addStore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/owner/addMenu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/owner/orderFinish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/owner/:storeId/orderList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/owner/:storeId/orderList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>owner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점 인덱스로 주문 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점별 주문 리스트 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점별 주문 리스트 api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야구장 리스트 api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야구장 전체 리스트 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/store/parkList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -813,7 +829,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -837,21 +853,21 @@
       </c>
       <c r="D11"/>
       <c r="E11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -882,21 +898,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="49.5">
-      <c r="A19" s="1" t="s">
-        <v>55</v>
+      <c r="A19" t="s">
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -911,29 +927,29 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -948,162 +964,176 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
       </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>68</v>
+      <c r="E28" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="4" t="s">
-        <v>22</v>
+      <c r="A29" t="s">
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
       </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>69</v>
+      <c r="A30" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="5" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>77</v>
+      <c r="E36" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
